--- a/medicine/Enfance/Liste_des_personnages_des_Monsieur_Madame/Liste_des_personnages_des_Monsieur_Madame.xlsx
+++ b/medicine/Enfance/Liste_des_personnages_des_Monsieur_Madame/Liste_des_personnages_des_Monsieur_Madame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette liste présente la collection des Monsieur Madame, publiée à partir de 1971 au Royaume-Uni et en France dès 1983.
@@ -513,7 +525,9 @@
           <t>Monsieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le classement correspond à la numérotation française. 
 Le numéro en fin de ligne à la numérotation anglaise, respectant l’ordre de parution anglais original depuis 1971.
@@ -570,7 +584,7 @@
 Monsieur Aventure (VO printemps 2016, VF juillet 2016) (Mr. Adventure) N°49
 Monsieur Tranquille  (VO/VF septembre 2021) (Mr. Calm) N°50
 Monsieur Non et Monsieur Bagarreur sont les seuls à n'avoir été publiés qu'en France.
-Notons l'existence de Monsieur Noël (octobre 2006) et de Monsieur Anniversaire (février 2007), qui appartiennent à la collection « Paillettes », ainsi que de Monsieur Glouglou, qui a été exclusivement créé pour la marque Évian[1].
+Notons l'existence de Monsieur Noël (octobre 2006) et de Monsieur Anniversaire (février 2007), qui appartiennent à la collection « Paillettes », ainsi que de Monsieur Glouglou, qui a été exclusivement créé pour la marque Évian.
 </t>
         </is>
       </c>
@@ -599,7 +613,9 @@
           <t>Madame</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Madame Autoritaire (VO septembre 1981, VF février 1985) (Little Miss Bossy)
 Madame Tête-En-L'Air (VO septembre 1981, VF février 1985) (Little Miss Scatterbrain)
@@ -649,7 +665,7 @@
 Madame Courage (VO / VF septembre 2021) (Little Miss Brave)
 Madame Moi-je (non rééditée) (la VO est la VF : mars 1990) (Little Miss Show-Off)
 Madame Collet-monté (non rééditée) (la VO est la VF : mars 1990) (Little Miss Prim)
-Notons l'existence de Madame Noël (octobre 2006) et de Madame Anniversaire (février 2007) qui appartiennent à la collection « Paillettes », ainsi que de Madame Exploratrice, qui a été exclusivement créée pour l'aéroport d'Heathrow. Par ailleurs, Madame Stella (McCartney)[2] a été créée dans le cadre d'une collection spéciale initiée par la créatrice du même nom. En Australie, l'histoire de Madame Jalouse a été publiée : plus elle est jalouse et envieuse, plus elle devient verte.
+Notons l'existence de Madame Noël (octobre 2006) et de Madame Anniversaire (février 2007) qui appartiennent à la collection « Paillettes », ainsi que de Madame Exploratrice, qui a été exclusivement créée pour l'aéroport d'Heathrow. Par ailleurs, Madame Stella (McCartney) a été créée dans le cadre d'une collection spéciale initiée par la créatrice du même nom. En Australie, l'histoire de Madame Jalouse a été publiée : plus elle est jalouse et envieuse, plus elle devient verte.
 </t>
         </is>
       </c>
